--- a/generators/fmt/umfrage-bis-2021-04/felder.xlsx
+++ b/generators/fmt/umfrage-bis-2021-04/felder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14952"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
   <si>
     <t>page</t>
   </si>
@@ -194,17 +194,339 @@
 Großbritannien</t>
   </si>
   <si>
+    <t>Folgende Aktienindizes / Rohstoffpreise werden mittelfristig (6 Monate)</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>Euro Stoxx 50 (Euroraum)
+DAX (Deutschl.)
+Tec-Dax (Deutschl.)
+Dow Jones (USA)
+Nikkei 225 (Japan)
+FT-SE 100 (Großbrit.)
+CAC-40 (Frankreich)
+FTSE MIB (Italien)
+Rohöl (Nordsee Brent)</t>
+  </si>
+  <si>
+    <t>q.sto_ez
+q.sto_dax
+q.sto_nemax
+q.sto_usa
+q.sto_jap
+q.sto_uk
+q.sto_fra
+q.sto_it
+q.oil</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>Den DAX erwarte ich in 6 Monaten bei ... Punkten</t>
+  </si>
+  <si>
+    <t>q.dax_erw</t>
+  </si>
+  <si>
+    <t>Mit einer Wahrscheinlichkeit von 90 Prozent wird der DAX dann zwischen</t>
+  </si>
+  <si>
+    <t>und  ...  Punkten liegen.</t>
+  </si>
+  <si>
+    <t>q.dax_min</t>
+  </si>
+  <si>
+    <t>q.dax_max</t>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t>Aus Sicht der Fundamentaldaten der DAX-Unternehmen ist der DAX derzeit</t>
+  </si>
+  <si>
+    <t>überbewertet 
+fair bewertet 
+unterbewertet 
+keine Angabe</t>
+  </si>
+  <si>
+    <t>q.dax_fund</t>
+  </si>
+  <si>
+    <t>Folgende Währungen werden gegenüber dem Euro mittelfristig (6 Monate)</t>
+  </si>
+  <si>
+    <t>aufwerten 
+gleich bleiben 
+abwerten 
+keine Angabe</t>
+  </si>
+  <si>
+    <t>US-Dollar
+Yen
+UK-Pfund
+Schweizer Franken</t>
+  </si>
+  <si>
+    <t>q.fx_usa
+q.fx_jap
+q.fx_uk
+q.fx_ch</t>
+  </si>
+  <si>
+    <t>Banken
+Versicherungen
+Fahrzeugbau
+Chemie/Pharma
+Stahl/NE-Metalle
+Elektro
+Maschinenbau
+Konsum/Handel
+Baugewerbe
+Versorger
+Dienstleister
+Telekommunikation
+Informationstechnologien</t>
+  </si>
+  <si>
+    <t>Die Ertragslage der Unternehmen in Deutschland wird mittelfristig (6 Monate) in den folgenden Branchen</t>
+  </si>
+  <si>
+    <t>besser 
+gleich bleiben 
+schlechter 
+keine Angabe</t>
+  </si>
+  <si>
+    <t>Die Wahrscheinlichkeit eines negativen BIP-Wachstums in Deutschland im 2. Quartal 2021 (Quartalswachstum des realen und saisonbereinigten BIP) liegt bei</t>
+  </si>
+  <si>
+    <t>q.y_recession</t>
+  </si>
+  <si>
+    <t>Wenn Sie Anmerkungen zu unserer Studie haben, können Sie sie uns hier mitteilen.</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Der Fragebogen gilt als abgeschlossen und kann nicht mehr geöffnet werden.
+Der Zugang bleibt bestehen, so daß die Daten in weiteren Sitzungen geändert/ergänzt werden können.</t>
+  </si>
+  <si>
+    <t>Sie sind am Ende des Fragebogens angekommen. Sie haben nun folgende Möglichkeiten</t>
+  </si>
+  <si>
+    <t>q.sec_banks
+q.sec_insur
+q.sec_cars
+q.sec_chemi
+q.sec_steel
+q.sec_elect
+q.sec_mecha
+q.sec_consu
+q.sec_const
+q.sec_utili
+q.sec_servi
+q.sec_telec
+q.sec_infor</t>
+  </si>
+  <si>
+    <t>Euroraum
+Deutschland
+USA
+China</t>
+  </si>
+  <si>
+    <t>enfällt</t>
+  </si>
+  <si>
+    <t>Euroraum
+USA
+China</t>
+  </si>
+  <si>
+    <t>Deutschland
+USA
+China</t>
+  </si>
+  <si>
     <t>q.r_deu
 q.i_usa
-q.i_jap
-q.i_uk</t>
+q.r_jap
+q.r_uk</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y0_ez
+y0_deu
+y0_usa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y0_chn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y_ez
+y_deu
+y_usa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y_chn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pi_ez
+pi_deu
+pi_usa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pi_chn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i_ez
+i_usa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_chn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r_deu
+r_usa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r_chn</t>
+    </r>
+  </si>
+  <si>
+    <t>Euro Stoxx 50
+DAX
+Dow Jones
+SSE Comp. China</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sto_ez
+sto_dax
+sto_usa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sto_sse_comp_chn</t>
+    </r>
+  </si>
+  <si>
+    <t>bleibt gleich</t>
+  </si>
+  <si>
+    <t>US-Dollar
+Yuan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">q.fx_usa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q.fx_yuan</t>
+    </r>
+  </si>
+  <si>
+    <t>y_recession_q0
+y_recession_q1</t>
+  </si>
+  <si>
+    <t>Aufspaltung in zwei Felder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bleibt gleich - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option "keine Angabe" entfällt</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +538,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,27 +572,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,266 +1063,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="76.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="69.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="35.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="21.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="35.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="E3" s="9"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="H5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="H8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="H10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="H12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="H14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F18" s="19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="H18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>3</v>
       </c>
-    </row>
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="H19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>3</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="H20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>3</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="H21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>3</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>3</v>
+      </c>
+      <c r="B23" s="14">
+        <v>7</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>3</v>
+      </c>
+      <c r="B24" s="14">
+        <v>7</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>4</v>
+      </c>
+      <c r="B26" s="8">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8">
+        <v>9</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>5</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21">
+        <v>5</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
